--- a/Model performance.xlsx
+++ b/Model performance.xlsx
@@ -4,19 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21435" windowHeight="10035"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21435" windowHeight="10035" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="External" sheetId="1" r:id="rId1"/>
+    <sheet name="Internal" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Selected covs" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="178">
   <si>
     <t>Date</t>
   </si>
@@ -70,18 +76,564 @@
   </si>
   <si>
     <t>looks like quickPred from mice might be better than my bespoke imputation model</t>
+  </si>
+  <si>
+    <t>backwards selection</t>
+  </si>
+  <si>
+    <t>YOB + HouseholdStatus + Q122771 + Q120379 + Q120472 + Q120194 + Q116881 + Q116953 + Q115611 + Q115390 + Q115195 + Q113181 + Q110740 + Q109244 + Q108342 + Q107869 + Q101163 + Q99480 + Q98197</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Accuracy (internal)</t>
+  </si>
+  <si>
+    <t>AIC</t>
+  </si>
+  <si>
+    <t>forwards selection</t>
+  </si>
+  <si>
+    <t>Q109244 + Q113181 + Q116881 + Q121699 + Q115611 + Q102089 + Q124122 + Gender + Q98078 + Q100680 + Q116953 + Q106272 + Q118232 + Q115899 + Q98869</t>
+  </si>
+  <si>
+    <t>YOB + HouseholdStatus + Q120379 + Q120472 + Q116881 + Q115611 + Q113181 + Q110740 + Q109244 + Q101163 + Q99480</t>
+  </si>
+  <si>
+    <t>Q109244 + Q113181 + Q116881 + Q121699 + Q115611 + Gender + Q98869</t>
+  </si>
+  <si>
+    <t>glm5</t>
+  </si>
+  <si>
+    <t>YOB + HouseholdStatus + Q120379 + Q120472 + Q119851 + Q116881 + Q115611 + Q113181 + Q110740 + Q109244 + Q101163 + Q99480 + Q108342 + Q108855 + Q108856 + Q115195 + Q120194 + Q122771 + Q123621</t>
+  </si>
+  <si>
+    <t>Q109244 + Q113181 + Q116881 + Q121699 + Q115611 + Q102089 + Gender + Q108754 + Q101162 + Q98869 + Q116953 + Q106272 + Q123621 + Q118232 + Q115899</t>
+  </si>
+  <si>
+    <t>glm6</t>
+  </si>
+  <si>
+    <t>YOB + HouseholdStatus + Q120379 + Q120472 + Q116881 + Q115611 + Q113181 + Q110740 + Q109244 + Q101163 + Q99480 + Q108342 + Q115195 + Q120194 + Q122771</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Q109244 + Q113181 + Q116881 + Q121699 + Q115611 + Q102089 + Gender + Q118232 + Q116953 + Q98869 + Q106272 + Q115899</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOB </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> HouseholdStatus </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q122771 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q120379 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q120472 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q120194 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q116881 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q116953 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q115611 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q115390 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q115195 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q113181 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q110740 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q109244 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q108342 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q107869 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q101163 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q99480 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q98197</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q109244 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q121699 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q102089 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q124122 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gender </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q98078 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q100680 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q106272 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q118232 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q115899 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q98869</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q99480</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q119851 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q108855 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q108856 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q123621</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q108754 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q101162 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q98869 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q123621 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q115899</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q122771</t>
+  </si>
+  <si>
+    <t>glm3backwards selection</t>
+  </si>
+  <si>
+    <t>glm3forwards selection</t>
+  </si>
+  <si>
+    <t>glm4backwards selection</t>
+  </si>
+  <si>
+    <t>glm4forwards selection</t>
+  </si>
+  <si>
+    <t>glm5backwards selection</t>
+  </si>
+  <si>
+    <t>glm5forwards selection</t>
+  </si>
+  <si>
+    <t>glm6backwards selection</t>
+  </si>
+  <si>
+    <t>glm6forwards selection</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q98197Q109244 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q98869YOB </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q99480Q109244 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q123621Q109244 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q115899YOB </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Q122771Q109244 </t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>HouseholdStatus</t>
+  </si>
+  <si>
+    <t>Q100680</t>
+  </si>
+  <si>
+    <t>Q101162</t>
+  </si>
+  <si>
+    <t>Q101163</t>
+  </si>
+  <si>
+    <t>Q102089</t>
+  </si>
+  <si>
+    <t>Q106272</t>
+  </si>
+  <si>
+    <t>Q107869</t>
+  </si>
+  <si>
+    <t>Q108342</t>
+  </si>
+  <si>
+    <t>Q108754</t>
+  </si>
+  <si>
+    <t>Q108855</t>
+  </si>
+  <si>
+    <t>Q108856</t>
+  </si>
+  <si>
+    <t>Q109244</t>
+  </si>
+  <si>
+    <t>Q110740</t>
+  </si>
+  <si>
+    <t>Q113181</t>
+  </si>
+  <si>
+    <t>Q115195</t>
+  </si>
+  <si>
+    <t>Q115390</t>
+  </si>
+  <si>
+    <t>Q115611</t>
+  </si>
+  <si>
+    <t>Q115899</t>
+  </si>
+  <si>
+    <t>YOB</t>
+  </si>
+  <si>
+    <t>Q116881</t>
+  </si>
+  <si>
+    <t>Q116953</t>
+  </si>
+  <si>
+    <t>Q118232</t>
+  </si>
+  <si>
+    <t>Q119851</t>
+  </si>
+  <si>
+    <t>Q120194</t>
+  </si>
+  <si>
+    <t>Q120379</t>
+  </si>
+  <si>
+    <t>Q120472</t>
+  </si>
+  <si>
+    <t>Q121699</t>
+  </si>
+  <si>
+    <t>Q122771</t>
+  </si>
+  <si>
+    <t>Q123621</t>
+  </si>
+  <si>
+    <t>Q124122</t>
+  </si>
+  <si>
+    <t>Q98078</t>
+  </si>
+  <si>
+    <t>Q98197</t>
+  </si>
+  <si>
+    <t>Q98869</t>
+  </si>
+  <si>
+    <t>Q99480</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Best</t>
+  </si>
+  <si>
+    <t>Do you pray or meditate on a regular basis?</t>
+  </si>
+  <si>
+    <t>Do you meditate or pray on a regular basis?</t>
+  </si>
+  <si>
+    <t>Have you cried in the past 60 days?</t>
+  </si>
+  <si>
+    <t>Are you generally more of an optimist or a pessimist?</t>
+  </si>
+  <si>
+    <t>Which parent "wore the pants" in your household?</t>
+  </si>
+  <si>
+    <t>Do you rent or own your primary residence?</t>
+  </si>
+  <si>
+    <t>Are you a feminist?</t>
+  </si>
+  <si>
+    <t>Mac or PC?</t>
+  </si>
+  <si>
+    <t>Do you personally own a gun?</t>
+  </si>
+  <si>
+    <t>Would you rather be happy or right?</t>
+  </si>
+  <si>
+    <t>Do you like rules?</t>
+  </si>
+  <si>
+    <t>Do you have (or plan to pursue) a Masters or Doctoral degree?</t>
+  </si>
+  <si>
+    <t>Science or Art?</t>
+  </si>
+  <si>
+    <t>2013: did you drink alcohol?</t>
+  </si>
+  <si>
+    <t>Did your parents spank you as a form of discipline/punishment?</t>
+  </si>
+  <si>
+    <t>Does life have a purpose?</t>
+  </si>
+  <si>
+    <t>Are you more of an idealist or a pragmatist?</t>
+  </si>
+  <si>
+    <t>Would you say most of the hardship in your life has been the result of circumstances beyond your own control, or has it been mostly the result of your own decisions and actions?</t>
+  </si>
+  <si>
+    <t>Do you own any power tools? (power saws, drills, etc.)</t>
+  </si>
+  <si>
+    <t>Do both of your parents have college degrees?</t>
+  </si>
+  <si>
+    <t>Did your parents fight in front of you?</t>
+  </si>
+  <si>
+    <t>Red = appeared in best models</t>
+  </si>
+  <si>
+    <t>Bold = almost identical (only one model includes both)</t>
+  </si>
+  <si>
+    <t>Shaded = appear in most models</t>
+  </si>
+  <si>
+    <t>Consensus</t>
+  </si>
+  <si>
+    <t>Consensus = all (except Q98197)</t>
+  </si>
+  <si>
+    <t>Optimum = Red</t>
+  </si>
+  <si>
+    <t>Frequent = Optimum + shaded</t>
+  </si>
+  <si>
+    <t>Optimum</t>
+  </si>
+  <si>
+    <t>Frequent</t>
+  </si>
+  <si>
+    <t>glm7</t>
+  </si>
+  <si>
+    <t>optimum</t>
+  </si>
+  <si>
+    <t>Q109244 + Q113181 + Q115611 + Q116881 + Q116953 + Q121699</t>
+  </si>
+  <si>
+    <t>glm8</t>
+  </si>
+  <si>
+    <t>frequent</t>
+  </si>
+  <si>
+    <t>HouseholdStatus + Q101163 + Q109244 + Q110740 + Q113181 + Q115611 + Q116881 + Q120379 + Q120472 + Q99480 + YOB</t>
+  </si>
+  <si>
+    <t>glm9</t>
+  </si>
+  <si>
+    <t>consensus</t>
+  </si>
+  <si>
+    <t>HouseholdStatus + Q101163 + Q107869 + Q108342 + Q109244 + Q110740 + Q113181 + Q115195 + Q115390 + Q115611 + Q116881 + Q116953 + Q120194 + Q120379 + Q120472 + Q122771 + Q123621 + Q99480 + YOB</t>
+  </si>
+  <si>
+    <t>Q109244 + Q113181 + Q116881 + Q121699 + Q115611 + Q102089 + Q124122 + Gender + Q108754 + Q100680 + Q98078 + Q116953 + Q106272 + Q123621 + Q101162 + Q98869 + Q118232</t>
+  </si>
+  <si>
+    <t>glm9_back</t>
+  </si>
+  <si>
+    <t>consensus covariates with forward selection</t>
+  </si>
+  <si>
+    <t>scored well in internal test</t>
+  </si>
+  <si>
+    <t>glm9_forw</t>
+  </si>
+  <si>
+    <t>consensus covariates with backward selection</t>
+  </si>
+  <si>
+    <t>optimum covariates</t>
+  </si>
+  <si>
+    <t>glm8_forw</t>
+  </si>
+  <si>
+    <t>frequent covariates with forward selection</t>
+  </si>
+  <si>
+    <t>glm8_back</t>
+  </si>
+  <si>
+    <t>frequent covariates with backward selection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,15 +656,90 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="3"/>
+      <tableStyleElement type="headerRow" dxfId="2"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -408,15 +1035,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="22.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="6" max="6" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -528,6 +1156,97 @@
       </c>
       <c r="G6" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>42528</v>
+      </c>
+      <c r="B7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G7" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -537,28 +1256,5415 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.61</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5410.9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="str">
+        <f>CONCATENATE(C3,D3)</f>
+        <v>glm3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.625</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5356.9880000000003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F23" si="0">CONCATENATE(C4,D4)</f>
+        <v>glm3backwards selection</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>0.63290230000000003</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1800.4480000000001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>glm3forwards selection</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.63</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5395.6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>glm4</v>
+      </c>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>0.6300287</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5377.0529999999999</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>glm4backwards selection</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>0.61637929999999996</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1813.749</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>glm4forwards selection</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>glm5</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5360.4189999999999</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>glm5backwards selection</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>0.64080459999999995</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1802.5440000000001</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>glm5forwards selection</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>5393</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>glm6</v>
+      </c>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>0.62428159999999999</v>
+      </c>
+      <c r="B13" s="2">
+        <v>5360.6779999999999</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>glm6backwards selection</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>0.63290230000000003</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1806.5229999999999</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>glm6forwards selection</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>0.62571840000000001</v>
+      </c>
+      <c r="B15" s="14">
+        <v>5426.2079999999996</v>
+      </c>
+      <c r="C15" t="s">
+        <v>158</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>glm7</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>0.62571840000000001</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5419.9740000000002</v>
+      </c>
+      <c r="C16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>glm7backwards selection</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>0.63290230000000003</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1806.5229999999999</v>
+      </c>
+      <c r="C17" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>glm7forwards selection</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="13">
+        <v>0.62571840000000001</v>
+      </c>
+      <c r="B18" s="13">
+        <v>5385.8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>161</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>glm8</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>0.62931029999999999</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5377.0529999999999</v>
+      </c>
+      <c r="C19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>glm8backwards selection</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>0.63290230000000003</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1806.5229999999999</v>
+      </c>
+      <c r="C20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>glm8forwards selection</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>0.62859200000000004</v>
+      </c>
+      <c r="B21" s="2">
+        <v>5376.1289999999999</v>
+      </c>
+      <c r="C21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>glm9</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>0.62787360000000003</v>
+      </c>
+      <c r="B22" s="2">
+        <v>5357.7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>164</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>glm9backwards selection</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>0.65301719999999996</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1795.886</v>
+      </c>
+      <c r="C23" t="s">
+        <v>164</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>glm9forwards selection</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G24" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G25" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G26" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:DC16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>49</v>
+      </c>
+      <c r="R1" t="s">
+        <v>50</v>
+      </c>
+      <c r="S1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+      <c r="K2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7" t="s">
+        <v>39</v>
+      </c>
+      <c r="S7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" t="s">
+        <v>70</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M8" t="s">
+        <v>60</v>
+      </c>
+      <c r="N8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:107" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" t="s">
+        <v>46</v>
+      </c>
+      <c r="O16" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>49</v>
+      </c>
+      <c r="R16" t="s">
+        <v>50</v>
+      </c>
+      <c r="S16" t="s">
+        <v>51</v>
+      </c>
+      <c r="T16" t="s">
+        <v>84</v>
+      </c>
+      <c r="U16" t="s">
+        <v>45</v>
+      </c>
+      <c r="V16" t="s">
+        <v>40</v>
+      </c>
+      <c r="W16" t="s">
+        <v>54</v>
+      </c>
+      <c r="X16" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>45</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>42</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>40</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>42</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>45</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>47</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>50</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>51</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>48</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>66</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>44</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>39</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>45</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>40</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>54</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>42</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>55</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>69</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>70</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>71</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>41</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>60</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>72</v>
+      </c>
+      <c r="CC16" t="s">
+        <v>61</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>88</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>35</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>37</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>38</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>40</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>42</v>
+      </c>
+      <c r="CJ16" t="s">
+        <v>45</v>
+      </c>
+      <c r="CK16" t="s">
+        <v>46</v>
+      </c>
+      <c r="CL16" t="s">
+        <v>47</v>
+      </c>
+      <c r="CM16" t="s">
+        <v>50</v>
+      </c>
+      <c r="CN16" t="s">
+        <v>51</v>
+      </c>
+      <c r="CO16" t="s">
+        <v>48</v>
+      </c>
+      <c r="CP16" t="s">
+        <v>44</v>
+      </c>
+      <c r="CQ16" t="s">
+        <v>39</v>
+      </c>
+      <c r="CR16" t="s">
+        <v>89</v>
+      </c>
+      <c r="CS16" t="s">
+        <v>45</v>
+      </c>
+      <c r="CT16" t="s">
+        <v>40</v>
+      </c>
+      <c r="CU16" t="s">
+        <v>54</v>
+      </c>
+      <c r="CV16" t="s">
+        <v>42</v>
+      </c>
+      <c r="CW16" t="s">
+        <v>55</v>
+      </c>
+      <c r="CX16" t="s">
+        <v>57</v>
+      </c>
+      <c r="CY16" t="s">
+        <v>61</v>
+      </c>
+      <c r="CZ16" t="s">
+        <v>41</v>
+      </c>
+      <c r="DA16" t="s">
+        <v>71</v>
+      </c>
+      <c r="DB16" t="s">
+        <v>60</v>
+      </c>
+      <c r="DC16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M114"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>104</v>
+      </c>
+      <c r="B40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>104</v>
+      </c>
+      <c r="B43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>107</v>
+      </c>
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>107</v>
+      </c>
+      <c r="B55" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>110</v>
+      </c>
+      <c r="B65" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>110</v>
+      </c>
+      <c r="B66" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>110</v>
+      </c>
+      <c r="B67" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>110</v>
+      </c>
+      <c r="B68" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>111</v>
+      </c>
+      <c r="B69" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>111</v>
+      </c>
+      <c r="B71" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>112</v>
+      </c>
+      <c r="B73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>112</v>
+      </c>
+      <c r="B74" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>114</v>
+      </c>
+      <c r="B77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>114</v>
+      </c>
+      <c r="B78" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>115</v>
+      </c>
+      <c r="B80" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>116</v>
+      </c>
+      <c r="B85" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>116</v>
+      </c>
+      <c r="B86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>116</v>
+      </c>
+      <c r="B87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>117</v>
+      </c>
+      <c r="B88" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>117</v>
+      </c>
+      <c r="B89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>117</v>
+      </c>
+      <c r="B90" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>117</v>
+      </c>
+      <c r="B91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>118</v>
+      </c>
+      <c r="B92" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>118</v>
+      </c>
+      <c r="B93" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>118</v>
+      </c>
+      <c r="B94" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>119</v>
+      </c>
+      <c r="B96" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>119</v>
+      </c>
+      <c r="B97" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>120</v>
+      </c>
+      <c r="B99" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>121</v>
+      </c>
+      <c r="B100" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>122</v>
+      </c>
+      <c r="B102" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>123</v>
+      </c>
+      <c r="B103" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>123</v>
+      </c>
+      <c r="B104" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>123</v>
+      </c>
+      <c r="B106" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>123</v>
+      </c>
+      <c r="B108" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>124</v>
+      </c>
+      <c r="B109" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>124</v>
+      </c>
+      <c r="B110" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>124</v>
+      </c>
+      <c r="B111" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>124</v>
+      </c>
+      <c r="B112" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>102</v>
+      </c>
+      <c r="B114" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:A16384">
+    <sortCondition ref="A2:A16384"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="N1" t="s">
+        <v>126</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A2)</f>
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A2)</f>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A2)</f>
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A2)</f>
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A2)</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A2)</f>
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <f>SUM(C2:M2)</f>
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <f>SUM(D2,J2,M2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A3)</f>
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A3)</f>
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A3)</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A3)</f>
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A3)</f>
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A3)</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N36" si="0">SUM(C3:M3)</f>
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O36" si="1">SUM(D3,J3,M3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A4)</f>
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A4)</f>
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A4)</f>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A5)</f>
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A5)</f>
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A5)</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A6)</f>
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A6)</f>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A6)</f>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A6)</f>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A6)</f>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A6)</f>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A7)</f>
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A7)</f>
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A7)</f>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A7)</f>
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A8)</f>
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A8)</f>
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A8)</f>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A8)</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A8)</f>
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A9)</f>
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A9)</f>
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A9)</f>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A10)</f>
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A10)</f>
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A10)</f>
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A10)</f>
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A10)</f>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A11)</f>
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A11)</f>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A11)</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A11)</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A11)</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A11)</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A11)</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A11)</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A11)</f>
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A11)</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A11)</f>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A11)</f>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A12)</f>
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A12)</f>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A12)</f>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A12)</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A12)</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A12)</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A12)</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A12)</f>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A12)</f>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A12)</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A12)</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A12)</f>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A13)</f>
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A13)</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A13)</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A13)</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A13)</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A13)</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A13)</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A13)</f>
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A13)</f>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A13)</f>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A13)</f>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A13)</f>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A14)</f>
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A14)</f>
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A14)</f>
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A14)</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A14)</f>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A14)</f>
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A14)</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A14)</f>
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A14)</f>
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A14)</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A14)</f>
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A14)</f>
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A15)</f>
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A15)</f>
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A15)</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A15)</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A15)</f>
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A15)</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A15)</f>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A15)</f>
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A15)</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A15)</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A15)</f>
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A15)</f>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A16)</f>
+        <v>8</v>
+      </c>
+      <c r="C16" s="9">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A16)</f>
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A16)</f>
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A16)</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A16)</f>
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A16)</f>
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A16)</f>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A16)</f>
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A16)</f>
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A16)</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A16)</f>
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A16)</f>
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A17)</f>
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A17)</f>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A17)</f>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A17)</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A17)</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A17)</f>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A17)</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A17)</f>
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A17)</f>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A17)</f>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A17)</f>
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A17)</f>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A18)</f>
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A18)</f>
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A18)</f>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A18)</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A18)</f>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A18)</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A18)</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A18)</f>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A18)</f>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A18)</f>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A18)</f>
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A18)</f>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A19)</f>
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A19)</f>
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A19)</f>
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A19)</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A19)</f>
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A19)</f>
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A19)</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A19)</f>
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A19)</f>
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A19)</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A19)</f>
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A19)</f>
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A20)</f>
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A20)</f>
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A20)</f>
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A20)</f>
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A20)</f>
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P20" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A21)</f>
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A21)</f>
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A21)</f>
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A21)</f>
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A21)</f>
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A21)</f>
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A21)</f>
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A21)</f>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A21)</f>
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A21)</f>
+        <v>1</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A22)</f>
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A22)</f>
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A22)</f>
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A22)</f>
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A22)</f>
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A22)</f>
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P22" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A23)</f>
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A23)</f>
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A23)</f>
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A23)</f>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A23)</f>
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P23" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A24)</f>
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A24)</f>
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A24)</f>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A25)</f>
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A25)</f>
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A25)</f>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A25)</f>
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A25)</f>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A26)</f>
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A26)</f>
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A26)</f>
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A26)</f>
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A26)</f>
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A26)</f>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A27)</f>
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A27)</f>
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A27)</f>
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A27)</f>
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A27)</f>
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A27)</f>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A28)</f>
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A28)</f>
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A28)</f>
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A28)</f>
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A28)</f>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A28)</f>
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P28" s="11" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A29)</f>
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A29)</f>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A29)</f>
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A29)</f>
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A29)</f>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A30)</f>
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A30)</f>
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A30)</f>
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A30)</f>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A31)</f>
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A31)</f>
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A31)</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P31" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A32)</f>
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A32)</f>
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A32)</f>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A33)</f>
+        <v>1</v>
+      </c>
+      <c r="C33" s="9">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A33)</f>
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A33)</f>
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A34)</f>
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A34)</f>
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A34)</f>
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A34)</f>
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A34)</f>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A34)</f>
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="P34" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A35)</f>
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A35)</f>
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A35)</f>
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A35)</f>
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A35)</f>
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A35)</f>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B36">
+        <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A36)</f>
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <f>COUNTIF(Sheet1!C$2:C$20,$A36)</f>
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <f>COUNTIF(Sheet1!D$2:D$20,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f>COUNTIF(Sheet1!E$2:E$20,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f>COUNTIF(Sheet1!F$2:F$20,$A36)</f>
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <f>COUNTIF(Sheet1!G$2:G$20,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f>COUNTIF(Sheet1!H$2:H$20,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f>COUNTIF(Sheet1!I$2:I$20,$A36)</f>
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <f>COUNTIF(Sheet1!J$2:J$20,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f>COUNTIF(Sheet1!K$2:K$20,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f>COUNTIF(Sheet1!L$2:L$20,$A36)</f>
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <f>COUNTIF(Sheet1!M$2:M$20,$A36)</f>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B37" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37">
+        <f>SUM(C2:C36)</f>
+        <v>19</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37:O37" si="2">SUM(D2:D36)</f>
+        <v>15</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A36">
+    <sortCondition ref="A1:A36"/>
+  </sortState>
+  <conditionalFormatting sqref="B2:B36">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+      <formula>3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:M36">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="C3:C35">
+    <sortCondition ref="C3:C35"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Model performance.xlsx
+++ b/Model performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21435" windowHeight="10035" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="21435" windowHeight="10035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="External" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="211">
   <si>
     <t>Date</t>
   </si>
@@ -81,9 +81,6 @@
     <t>backwards selection</t>
   </si>
   <si>
-    <t>YOB + HouseholdStatus + Q122771 + Q120379 + Q120472 + Q120194 + Q116881 + Q116953 + Q115611 + Q115390 + Q115195 + Q113181 + Q110740 + Q109244 + Q108342 + Q107869 + Q101163 + Q99480 + Q98197</t>
-  </si>
-  <si>
     <t>Variables</t>
   </si>
   <si>
@@ -96,36 +93,12 @@
     <t>forwards selection</t>
   </si>
   <si>
-    <t>Q109244 + Q113181 + Q116881 + Q121699 + Q115611 + Q102089 + Q124122 + Gender + Q98078 + Q100680 + Q116953 + Q106272 + Q118232 + Q115899 + Q98869</t>
-  </si>
-  <si>
-    <t>YOB + HouseholdStatus + Q120379 + Q120472 + Q116881 + Q115611 + Q113181 + Q110740 + Q109244 + Q101163 + Q99480</t>
-  </si>
-  <si>
-    <t>Q109244 + Q113181 + Q116881 + Q121699 + Q115611 + Gender + Q98869</t>
-  </si>
-  <si>
     <t>glm5</t>
   </si>
   <si>
-    <t>YOB + HouseholdStatus + Q120379 + Q120472 + Q119851 + Q116881 + Q115611 + Q113181 + Q110740 + Q109244 + Q101163 + Q99480 + Q108342 + Q108855 + Q108856 + Q115195 + Q120194 + Q122771 + Q123621</t>
-  </si>
-  <si>
-    <t>Q109244 + Q113181 + Q116881 + Q121699 + Q115611 + Q102089 + Gender + Q108754 + Q101162 + Q98869 + Q116953 + Q106272 + Q123621 + Q118232 + Q115899</t>
-  </si>
-  <si>
     <t>glm6</t>
   </si>
   <si>
-    <t>YOB + HouseholdStatus + Q120379 + Q120472 + Q116881 + Q115611 + Q113181 + Q110740 + Q109244 + Q101163 + Q99480 + Q108342 + Q115195 + Q120194 + Q122771</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Q109244 + Q113181 + Q116881 + Q121699 + Q115611 + Q102089 + Gender + Q118232 + Q116953 + Q98869 + Q106272 + Q115899</t>
-  </si>
-  <si>
     <t xml:space="preserve">YOB </t>
   </si>
   <si>
@@ -504,30 +477,18 @@
     <t>optimum</t>
   </si>
   <si>
-    <t>Q109244 + Q113181 + Q115611 + Q116881 + Q116953 + Q121699</t>
-  </si>
-  <si>
     <t>glm8</t>
   </si>
   <si>
     <t>frequent</t>
   </si>
   <si>
-    <t>HouseholdStatus + Q101163 + Q109244 + Q110740 + Q113181 + Q115611 + Q116881 + Q120379 + Q120472 + Q99480 + YOB</t>
-  </si>
-  <si>
     <t>glm9</t>
   </si>
   <si>
     <t>consensus</t>
   </si>
   <si>
-    <t>HouseholdStatus + Q101163 + Q107869 + Q108342 + Q109244 + Q110740 + Q113181 + Q115195 + Q115390 + Q115611 + Q116881 + Q116953 + Q120194 + Q120379 + Q120472 + Q122771 + Q123621 + Q99480 + YOB</t>
-  </si>
-  <si>
-    <t>Q109244 + Q113181 + Q116881 + Q121699 + Q115611 + Q102089 + Q124122 + Gender + Q108754 + Q100680 + Q98078 + Q116953 + Q106272 + Q123621 + Q101162 + Q98869 + Q118232</t>
-  </si>
-  <si>
     <t>glm9_back</t>
   </si>
   <si>
@@ -556,13 +517,1726 @@
   </si>
   <si>
     <t>frequent covariates with backward selection</t>
+  </si>
+  <si>
+    <t>glm10</t>
+  </si>
+  <si>
+    <t>basic and sig questions (ie glm4 above)</t>
+  </si>
+  <si>
+    <t>note that the error rate in the imputation seemed high</t>
+  </si>
+  <si>
+    <t>glm11</t>
+  </si>
+  <si>
+    <t>mF separate test and train</t>
+  </si>
+  <si>
+    <t>mF2 joint test and train</t>
+  </si>
+  <si>
+    <t>frequent covariate (ie glm8 above)</t>
+  </si>
+  <si>
+    <t>glm12</t>
+  </si>
+  <si>
+    <t>glm12_back</t>
+  </si>
+  <si>
+    <t>rf1</t>
+  </si>
+  <si>
+    <t>rf</t>
+  </si>
+  <si>
+    <t>all covariates</t>
+  </si>
+  <si>
+    <t>rf2</t>
+  </si>
+  <si>
+    <t>consensus covariates</t>
+  </si>
+  <si>
+    <t>actually there was a mistake in the model formulation</t>
+  </si>
+  <si>
+    <t>rf3</t>
+  </si>
+  <si>
+    <t>rf4</t>
+  </si>
+  <si>
+    <t>frequent covariates</t>
+  </si>
+  <si>
+    <t>repeat of rf1 after fixing mistake</t>
+  </si>
+  <si>
+    <t>rf5</t>
+  </si>
+  <si>
+    <t>rf6</t>
+  </si>
+  <si>
+    <t>imp3_mode</t>
+  </si>
+  <si>
+    <t>repeat of rf5 with different imputed dataset</t>
+  </si>
+  <si>
+    <t>glm13</t>
+  </si>
+  <si>
+    <t>glm14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>glm15</t>
+  </si>
+  <si>
+    <t>freq covariates optimised with glmulti</t>
+  </si>
+  <si>
+    <t>optimum covariates optimised with glmulti</t>
+  </si>
+  <si>
+    <t>rf7</t>
+  </si>
+  <si>
+    <t>like rf5 but using the mice-imputed dataset, imp3_mode</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q109244</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q113181</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q116881</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q121699</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115611</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Gender + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q98869</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q109244</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q113181</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115611</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q116881</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q116953 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q121699</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HouseholdStatus + Q101163 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q109244</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q110740 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q113181</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115611</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q116881</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q120379 + Q120472 + Q99480 + YOB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">YOB + HouseholdStatus + Q122771 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9933FF"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q120379</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q120472 + Q120194 + Q116881 + Q116953 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115611</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q115390 + Q115195 + Q113181 + Q110740 + Q109244 + Q108342 + Q107869 + Q101163 + Q99480 + Q98197</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">YOB + HouseholdStatus + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9933FF"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q120379</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q120472 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q116881</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115611</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q113181</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q110740 + Q109244 + Q101163 + Q99480</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">YOB + HouseholdStatus + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9933FF"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q120379</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q120472 + Q119851 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q116881</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115611</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q113181</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q110740 + Q109244 + Q101163 + Q99480 + Q108342 + Q108855 + Q108856 + Q115195 + Q120194 + Q122771 + Q123621</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">YOB + HouseholdStatus + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9933FF"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q120379</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q120472 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q116881</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115611</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q113181</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q110740 + Q109244 + Q101163 + Q99480 + Q108342 + Q115195 + Q120194 + Q122771</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HouseholdStatus + Q101163 + Q107869 + Q108342 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q109244</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q110740 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q113181</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q115195 + Q115390 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115611</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q116881</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q116953 + Q120194 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9933FF"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q120379</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q120472 + Q122771 + Q123621 + Q99480 + YOB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF66FF33"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q102089</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q109244</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q113181</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115611</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115899</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q116881</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q121699</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q98869</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HouseholdStatus + Q101163 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF66FF33"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q102089</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q109244</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q110740 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q113181</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115611</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115899</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q116881</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9933FF"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q120379</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q98869</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q99480 + YOB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HouseholdStatus + Q101163 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF66FF33"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q102089</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q109244</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q110740 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q113181</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115611</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115899</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q116881</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9933FF"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q120379</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q121699</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q98869</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q99480 + YOB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q109244</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q113181</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q116881</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q121699</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115611</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF66FF33"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q102089</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q124122 + Gender + Q108754 + Q100680 + Q98078 + Q116953 + Q106272 + Q123621 + Q101162 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q98869</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q118232</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q109244</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q113181</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q116881</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q121699</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115611</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF66FF33"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q102089</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Gender + Q118232 + Q116953 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q98869</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q106272 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115899</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q109244</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q113181</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q116881</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q121699</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115611</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF66FF33"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q102089</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Gender + Q108754 + Q101162 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q98869</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q116953 + Q106272 + Q123621 + Q118232 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115899</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q109244</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q113181</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q116881</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q121699</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115611</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF66FF33"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q102089</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q124122 + Gender + Q98078 + Q100680 + Q116953 + Q106272 + Q118232 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115899</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="-0.499984740745262"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q98869</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -635,6 +2309,73 @@
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="6" tint="0.59999389629810485"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4" tint="0.39997558519241921"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7" tint="0.59999389629810485"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF9933FF"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF66FF33"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -656,7 +2397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -686,6 +2427,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -740,6 +2484,11 @@
       <tableStyleElement type="headerRow" dxfId="2"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FF66FF33"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1035,16 +2784,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -1163,7 +2913,7 @@
         <v>42528</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="C7">
         <v>0.59199999999999997</v>
@@ -1175,15 +2925,15 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="G7" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C8">
         <v>0.61199999999999999</v>
@@ -1195,12 +2945,12 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C9">
         <v>0.58799999999999997</v>
@@ -1212,12 +2962,12 @@
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C10">
         <v>0.60499999999999998</v>
@@ -1229,12 +2979,12 @@
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C11">
         <v>0.61499999999999999</v>
@@ -1246,7 +2996,275 @@
         <v>8</v>
       </c>
       <c r="F11" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>42529</v>
+      </c>
+      <c r="B12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="D12" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>166</v>
+      </c>
+      <c r="G12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>42530</v>
+      </c>
+      <c r="B13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13">
+        <v>0.621</v>
+      </c>
+      <c r="D13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>166</v>
+      </c>
+      <c r="G13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14">
+        <v>0.621</v>
+      </c>
+      <c r="D14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="D15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="G16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="15" t="s">
         <v>177</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" t="s">
+        <v>175</v>
+      </c>
+      <c r="F18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19">
+        <v>0.621</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" t="s">
+        <v>175</v>
+      </c>
+      <c r="F19" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="D20" t="s">
+        <v>170</v>
+      </c>
+      <c r="E20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G20" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>42532</v>
+      </c>
+      <c r="B21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0.622</v>
+      </c>
+      <c r="D21" t="s">
+        <v>186</v>
+      </c>
+      <c r="E21" t="s">
+        <v>175</v>
+      </c>
+      <c r="F21" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="D22" t="s">
+        <v>186</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="D23" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="D24" t="s">
+        <v>186</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="D25" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1256,10 +3274,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1267,21 +3285,21 @@
     <col min="1" max="2" width="15.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.61</v>
       </c>
@@ -1296,7 +3314,7 @@
         <v>glm3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.625</v>
       </c>
@@ -1310,14 +3328,14 @@
         <v>18</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F4:F23" si="0">CONCATENATE(C4,D4)</f>
+        <f t="shared" ref="F4:F27" si="0">CONCATENATE(C4,D4)</f>
         <v>glm3backwards selection</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>0.63290230000000003</v>
       </c>
@@ -1328,17 +3346,18 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
         <v>glm3forwards selection</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>0.63</v>
       </c>
@@ -1354,7 +3373,7 @@
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>0.6300287</v>
       </c>
@@ -1372,10 +3391,10 @@
         <v>glm4backwards selection</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>0.61637929999999996</v>
       </c>
@@ -1386,19 +3405,19 @@
         <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
         <v>glm4forwards selection</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -1406,7 +3425,7 @@
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>0.625</v>
       </c>
@@ -1414,7 +3433,7 @@
         <v>5360.4189999999999</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -1424,10 +3443,10 @@
         <v>glm5backwards selection</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>0.64080459999999995</v>
       </c>
@@ -1435,25 +3454,25 @@
         <v>1802.5440000000001</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
         <v>glm5forwards selection</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
         <v>5393</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -1461,7 +3480,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>0.62428159999999999</v>
       </c>
@@ -1469,7 +3488,7 @@
         <v>5360.6779999999999</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>18</v>
@@ -1479,10 +3498,10 @@
         <v>glm6backwards selection</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>0.63290230000000003</v>
       </c>
@@ -1490,20 +3509,20 @@
         <v>1806.5229999999999</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
         <v>glm6forwards selection</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>0.62571840000000001</v>
       </c>
@@ -1511,17 +3530,17 @@
         <v>5426.2079999999996</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
         <v>glm7</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>0.62571840000000001</v>
       </c>
@@ -1529,7 +3548,7 @@
         <v>5419.9740000000002</v>
       </c>
       <c r="C16" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -1539,7 +3558,7 @@
         <v>glm7backwards selection</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1550,17 +3569,17 @@
         <v>1806.5229999999999</v>
       </c>
       <c r="C17" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
         <v>glm7forwards selection</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>33</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1571,14 +3590,14 @@
         <v>5385.8</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
         <v>glm8</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1589,7 +3608,7 @@
         <v>5377.0529999999999</v>
       </c>
       <c r="C19" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -1599,7 +3618,7 @@
         <v>glm8backwards selection</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1610,10 +3629,10 @@
         <v>1806.5229999999999</v>
       </c>
       <c r="C20" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -1629,14 +3648,14 @@
         <v>5376.1289999999999</v>
       </c>
       <c r="C21" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
         <v>glm9</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -1647,7 +3666,7 @@
         <v>5357.7</v>
       </c>
       <c r="C22" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -1657,7 +3676,7 @@
         <v>glm9backwards selection</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1668,31 +3687,81 @@
         <v>1795.886</v>
       </c>
       <c r="C23" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v>glm9forwards selection</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>0.64008620000000005</v>
+      </c>
+      <c r="B24" s="2">
+        <v>5347.69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>glm13</v>
+      </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>0.64008620000000005</v>
+      </c>
+      <c r="B25" s="2">
+        <v>5347.7269999999999</v>
+      </c>
+      <c r="C25" t="s">
+        <v>189</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>glm14</v>
+      </c>
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G26" s="2"/>
+      <c r="A26" s="2">
+        <v>0.62643680000000002</v>
+      </c>
+      <c r="B26" s="2">
+        <v>5377.1890000000003</v>
+      </c>
+      <c r="C26" t="s">
+        <v>191</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>glm15</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>190</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1711,114 +3780,114 @@
   <sheetData>
     <row r="1" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>38</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>39</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>41</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>43</v>
-      </c>
-      <c r="L1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>49</v>
-      </c>
-      <c r="R1" t="s">
-        <v>50</v>
-      </c>
-      <c r="S1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="P2" t="s">
         <v>54</v>
-      </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" t="s">
-        <v>41</v>
-      </c>
-      <c r="M2" t="s">
-        <v>60</v>
-      </c>
-      <c r="N2" t="s">
-        <v>61</v>
-      </c>
-      <c r="O2" t="s">
-        <v>62</v>
-      </c>
-      <c r="P2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:107" x14ac:dyDescent="0.2">
@@ -1826,66 +3895,66 @@
     </row>
     <row r="4" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="s">
+      <c r="J4" t="s">
         <v>38</v>
       </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" t="s">
-        <v>47</v>
-      </c>
       <c r="K4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
         <v>45</v>
       </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" t="s">
         <v>54</v>
-      </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:107" x14ac:dyDescent="0.2">
@@ -1893,114 +3962,114 @@
     </row>
     <row r="7" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K7" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" t="s">
-        <v>48</v>
-      </c>
-      <c r="O7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>44</v>
-      </c>
       <c r="R7" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="S7" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="T7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
         <v>45</v>
       </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>54</v>
-      </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="J8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="K8" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="L8" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="N8" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="O8" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:107" x14ac:dyDescent="0.2">
@@ -2008,416 +4077,416 @@
     </row>
     <row r="10" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" t="s">
+        <v>39</v>
+      </c>
+      <c r="N10" t="s">
         <v>35</v>
       </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" t="s">
-        <v>42</v>
-      </c>
-      <c r="H10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" t="s">
-        <v>51</v>
-      </c>
-      <c r="M10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N10" t="s">
-        <v>44</v>
-      </c>
       <c r="O10" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="P10" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
         <v>45</v>
       </c>
-      <c r="D11" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
       <c r="F11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="K11" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="M11" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+      <c r="J16" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="s">
+      <c r="L16" t="s">
         <v>35</v>
       </c>
-      <c r="D16" t="s">
+      <c r="M16" t="s">
         <v>36</v>
       </c>
-      <c r="E16" t="s">
+      <c r="N16" t="s">
         <v>37</v>
       </c>
-      <c r="F16" t="s">
+      <c r="O16" t="s">
         <v>38</v>
       </c>
-      <c r="G16" t="s">
+      <c r="P16" t="s">
         <v>39</v>
       </c>
-      <c r="H16" t="s">
+      <c r="Q16" t="s">
         <v>40</v>
       </c>
-      <c r="I16" t="s">
+      <c r="R16" t="s">
         <v>41</v>
       </c>
-      <c r="J16" t="s">
+      <c r="S16" t="s">
         <v>42</v>
       </c>
-      <c r="K16" t="s">
-        <v>43</v>
-      </c>
-      <c r="L16" t="s">
-        <v>44</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="T16" t="s">
+        <v>75</v>
+      </c>
+      <c r="U16" t="s">
+        <v>36</v>
+      </c>
+      <c r="V16" t="s">
+        <v>31</v>
+      </c>
+      <c r="W16" t="s">
         <v>45</v>
       </c>
-      <c r="N16" t="s">
+      <c r="X16" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y16" t="s">
         <v>46</v>
       </c>
-      <c r="O16" t="s">
+      <c r="Z16" t="s">
         <v>47</v>
       </c>
-      <c r="P16" t="s">
+      <c r="AA16" t="s">
         <v>48</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="AB16" t="s">
         <v>49</v>
       </c>
-      <c r="R16" t="s">
+      <c r="AC16" t="s">
         <v>50</v>
       </c>
-      <c r="S16" t="s">
+      <c r="AD16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE16" t="s">
         <v>51</v>
       </c>
-      <c r="T16" t="s">
-        <v>84</v>
-      </c>
-      <c r="U16" t="s">
+      <c r="AF16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU16" t="s">
         <v>45</v>
       </c>
-      <c r="V16" t="s">
-        <v>40</v>
-      </c>
-      <c r="W16" t="s">
-        <v>54</v>
-      </c>
-      <c r="X16" t="s">
+      <c r="AV16" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>26</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>28</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>29</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>56</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>31</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>33</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>37</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>38</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>41</v>
+      </c>
+      <c r="BI16" t="s">
         <v>42</v>
       </c>
-      <c r="Y16" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA16" t="s">
+      <c r="BJ16" t="s">
+        <v>39</v>
+      </c>
+      <c r="BK16" t="s">
         <v>57</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="BL16" t="s">
         <v>58</v>
       </c>
-      <c r="AC16" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD16" t="s">
+      <c r="BM16" t="s">
+        <v>35</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>30</v>
+      </c>
+      <c r="BO16" t="s">
+        <v>27</v>
+      </c>
+      <c r="BP16" t="s">
+        <v>78</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>36</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>31</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>45</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>33</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>46</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>48</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>60</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>61</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>62</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>32</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>51</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>63</v>
+      </c>
+      <c r="CC16" t="s">
+        <v>52</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>79</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>26</v>
+      </c>
+      <c r="CF16" t="s">
+        <v>28</v>
+      </c>
+      <c r="CG16" t="s">
+        <v>29</v>
+      </c>
+      <c r="CH16" t="s">
+        <v>31</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>33</v>
+      </c>
+      <c r="CJ16" t="s">
+        <v>36</v>
+      </c>
+      <c r="CK16" t="s">
+        <v>37</v>
+      </c>
+      <c r="CL16" t="s">
+        <v>38</v>
+      </c>
+      <c r="CM16" t="s">
         <v>41</v>
       </c>
-      <c r="AE16" t="s">
-        <v>60</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG16" t="s">
+      <c r="CN16" t="s">
+        <v>42</v>
+      </c>
+      <c r="CO16" t="s">
+        <v>39</v>
+      </c>
+      <c r="CP16" t="s">
+        <v>35</v>
+      </c>
+      <c r="CQ16" t="s">
+        <v>30</v>
+      </c>
+      <c r="CR16" t="s">
+        <v>80</v>
+      </c>
+      <c r="CS16" t="s">
+        <v>36</v>
+      </c>
+      <c r="CT16" t="s">
+        <v>31</v>
+      </c>
+      <c r="CU16" t="s">
+        <v>45</v>
+      </c>
+      <c r="CV16" t="s">
+        <v>33</v>
+      </c>
+      <c r="CW16" t="s">
+        <v>46</v>
+      </c>
+      <c r="CX16" t="s">
+        <v>48</v>
+      </c>
+      <c r="CY16" t="s">
+        <v>52</v>
+      </c>
+      <c r="CZ16" t="s">
+        <v>32</v>
+      </c>
+      <c r="DA16" t="s">
         <v>62</v>
       </c>
-      <c r="AH16" t="s">
-        <v>85</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>35</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>47</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>50</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>86</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>40</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>54</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>42</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>85</v>
-      </c>
-      <c r="AY16" t="s">
-        <v>35</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>37</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>38</v>
-      </c>
-      <c r="BB16" t="s">
-        <v>65</v>
-      </c>
-      <c r="BC16" t="s">
-        <v>40</v>
-      </c>
-      <c r="BD16" t="s">
-        <v>42</v>
-      </c>
-      <c r="BE16" t="s">
-        <v>45</v>
-      </c>
-      <c r="BF16" t="s">
-        <v>46</v>
-      </c>
-      <c r="BG16" t="s">
-        <v>47</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>50</v>
-      </c>
-      <c r="BI16" t="s">
+      <c r="DB16" t="s">
         <v>51</v>
       </c>
-      <c r="BJ16" t="s">
-        <v>48</v>
-      </c>
-      <c r="BK16" t="s">
-        <v>66</v>
-      </c>
-      <c r="BL16" t="s">
-        <v>67</v>
-      </c>
-      <c r="BM16" t="s">
-        <v>44</v>
-      </c>
-      <c r="BN16" t="s">
-        <v>39</v>
-      </c>
-      <c r="BO16" t="s">
-        <v>36</v>
-      </c>
-      <c r="BP16" t="s">
-        <v>87</v>
-      </c>
-      <c r="BQ16" t="s">
-        <v>45</v>
-      </c>
-      <c r="BR16" t="s">
-        <v>40</v>
-      </c>
-      <c r="BS16" t="s">
-        <v>54</v>
-      </c>
-      <c r="BT16" t="s">
-        <v>42</v>
-      </c>
-      <c r="BU16" t="s">
-        <v>55</v>
-      </c>
-      <c r="BV16" t="s">
-        <v>57</v>
-      </c>
-      <c r="BW16" t="s">
-        <v>69</v>
-      </c>
-      <c r="BX16" t="s">
-        <v>70</v>
-      </c>
-      <c r="BY16" t="s">
-        <v>71</v>
-      </c>
-      <c r="BZ16" t="s">
-        <v>41</v>
-      </c>
-      <c r="CA16" t="s">
-        <v>60</v>
-      </c>
-      <c r="CB16" t="s">
-        <v>72</v>
-      </c>
-      <c r="CC16" t="s">
-        <v>61</v>
-      </c>
-      <c r="CD16" t="s">
-        <v>88</v>
-      </c>
-      <c r="CE16" t="s">
-        <v>35</v>
-      </c>
-      <c r="CF16" t="s">
-        <v>37</v>
-      </c>
-      <c r="CG16" t="s">
-        <v>38</v>
-      </c>
-      <c r="CH16" t="s">
-        <v>40</v>
-      </c>
-      <c r="CI16" t="s">
-        <v>42</v>
-      </c>
-      <c r="CJ16" t="s">
-        <v>45</v>
-      </c>
-      <c r="CK16" t="s">
-        <v>46</v>
-      </c>
-      <c r="CL16" t="s">
-        <v>47</v>
-      </c>
-      <c r="CM16" t="s">
-        <v>50</v>
-      </c>
-      <c r="CN16" t="s">
-        <v>51</v>
-      </c>
-      <c r="CO16" t="s">
-        <v>48</v>
-      </c>
-      <c r="CP16" t="s">
-        <v>44</v>
-      </c>
-      <c r="CQ16" t="s">
-        <v>39</v>
-      </c>
-      <c r="CR16" t="s">
-        <v>89</v>
-      </c>
-      <c r="CS16" t="s">
-        <v>45</v>
-      </c>
-      <c r="CT16" t="s">
-        <v>40</v>
-      </c>
-      <c r="CU16" t="s">
-        <v>54</v>
-      </c>
-      <c r="CV16" t="s">
-        <v>42</v>
-      </c>
-      <c r="CW16" t="s">
-        <v>55</v>
-      </c>
-      <c r="CX16" t="s">
-        <v>57</v>
-      </c>
-      <c r="CY16" t="s">
-        <v>61</v>
-      </c>
-      <c r="CZ16" t="s">
-        <v>41</v>
-      </c>
-      <c r="DA16" t="s">
-        <v>71</v>
-      </c>
-      <c r="DB16" t="s">
-        <v>60</v>
-      </c>
       <c r="DC16" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -2444,821 +4513,821 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="L1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="M1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="6" t="s">
+      <c r="K9" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>103</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>102</v>
-      </c>
       <c r="J11" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="E14" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -3274,746 +5343,746 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B26" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B41" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B58" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B60" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B61" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B62" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B63" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B65" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B66" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B67" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B68" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B69" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B70" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B71" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B73" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B74" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B75" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B76" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B77" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B78" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B79" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B80" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B81" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B82" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B83" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B84" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B85" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B86" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B87" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B88" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B89" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B90" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B91" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B92" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B93" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B94" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B96" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B97" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B98" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B99" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B100" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B102" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B103" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B104" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B105" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B106" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B107" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B108" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B109" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B110" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B111" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B114" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -4040,42 +6109,42 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="L1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="N1" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A2)</f>
@@ -4136,7 +6205,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A3)</f>
@@ -4197,7 +6266,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B4">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A4)</f>
@@ -4256,12 +6325,12 @@
         <v>1</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B5">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A5)</f>
@@ -4320,12 +6389,12 @@
         <v>1</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B6">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A6)</f>
@@ -4384,12 +6453,12 @@
         <v>0</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B7">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A7)</f>
@@ -4448,12 +6517,12 @@
         <v>3</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B8">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A8)</f>
@@ -4512,12 +6581,12 @@
         <v>3</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B9">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A9)</f>
@@ -4578,7 +6647,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="B10">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A10)</f>
@@ -4639,7 +6708,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B11">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A11)</f>
@@ -4698,12 +6767,12 @@
         <v>1</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B12">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A12)</f>
@@ -4764,7 +6833,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B13">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A13)</f>
@@ -4825,7 +6894,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B14">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A14)</f>
@@ -4884,12 +6953,12 @@
         <v>3</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B15">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A15)</f>
@@ -4948,12 +7017,12 @@
         <v>0</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B16">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A16)</f>
@@ -5012,12 +7081,12 @@
         <v>3</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B17">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A17)</f>
@@ -5078,7 +7147,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B18">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A18)</f>
@@ -5139,7 +7208,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B19">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A19)</f>
@@ -5198,12 +7267,12 @@
         <v>3</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B20">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A20)</f>
@@ -5262,12 +7331,12 @@
         <v>3</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B21">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A21)</f>
@@ -5326,12 +7395,12 @@
         <v>3</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B22">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A22)</f>
@@ -5390,12 +7459,12 @@
         <v>3</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B23">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A23)</f>
@@ -5454,12 +7523,12 @@
         <v>3</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B24">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A24)</f>
@@ -5520,7 +7589,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B25">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A25)</f>
@@ -5581,7 +7650,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B26">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A26)</f>
@@ -5640,12 +7709,12 @@
         <v>0</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B27">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A27)</f>
@@ -5704,12 +7773,12 @@
         <v>0</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B28">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A28)</f>
@@ -5768,12 +7837,12 @@
         <v>3</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B29">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A29)</f>
@@ -5834,7 +7903,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B30">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A30)</f>
@@ -5895,7 +7964,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B31">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A31)</f>
@@ -5954,12 +8023,12 @@
         <v>1</v>
       </c>
       <c r="P31" s="11" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B32">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A32)</f>
@@ -6020,7 +8089,7 @@
     </row>
     <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B33">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A33)</f>
@@ -6079,12 +8148,12 @@
         <v>0</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B34">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A34)</f>
@@ -6143,12 +8212,12 @@
         <v>3</v>
       </c>
       <c r="P34" s="11" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B35">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A35)</f>
@@ -6207,12 +8276,12 @@
         <v>0</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B36">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A36)</f>
@@ -6273,14 +8342,14 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B37" s="8" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C37">
         <f>SUM(C2:C36)</f>
         <v>19</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37:O37" si="2">SUM(D2:D36)</f>
+        <f t="shared" ref="D37:N37" si="2">SUM(D2:D36)</f>
         <v>15</v>
       </c>
       <c r="E37">
@@ -6326,32 +8395,32 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -6376,7 +8445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -6389,276 +8458,276 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C1" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>102</v>
-      </c>
       <c r="C5" s="4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C15" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C20" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Model performance.xlsx
+++ b/Model performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="21435" windowHeight="10035" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="21435" windowHeight="9975"/>
   </bookViews>
   <sheets>
     <sheet name="External" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
     <sheet name="Selected covs" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet6" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="230">
   <si>
     <t>Date</t>
   </si>
@@ -651,6 +652,24 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115611</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="4" tint="0.39997558519241921"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
@@ -664,11 +683,130 @@
         <rFont val="Lucida Console"/>
         <family val="3"/>
       </rPr>
+      <t xml:space="preserve"> + Q116953 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q121699</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF66FF33"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q102089</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
       <t xml:space="preserve"> + </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q109244</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q113181</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115611</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115899</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q116881</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="7" tint="-0.249977111117893"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
@@ -682,11 +820,94 @@
         <rFont val="Lucida Console"/>
         <family val="3"/>
       </rPr>
+      <t xml:space="preserve"> +</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> Q98869</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q109244</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
       <t xml:space="preserve"> + </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q113181</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q116881</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q121699</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="7" tint="0.59999389629810485"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
@@ -700,12 +921,414 @@
         <rFont val="Lucida Console"/>
         <family val="3"/>
       </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF66FF33"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q102089</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q124122 + Gender + Q108754 + Q100680 + Q98078 + Q116953 + Q106272 + Q123621 + Q101162 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q98869</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q118232</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q109244</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q113181</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q116881</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q121699</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115611</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF66FF33"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q102089</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Gender + Q118232 + Q116953 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q98869</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q106272 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115899</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q109244</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q113181</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q116881</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q121699</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115611</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF66FF33"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q102089</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Gender + Q108754 + Q101162 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q98869</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q116953 + Q106272 + Q123621 + Q118232 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115899</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q109244</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q113181</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q116881</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q121699</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115611</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
       <t xml:space="preserve"> + Gender + </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <color theme="4" tint="-0.499984740745262"/>
+        <color rgb="FFFF0000"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
       </rPr>
@@ -752,6 +1375,42 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q116881</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q121699</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="7" tint="0.59999389629810485"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
@@ -770,6 +1429,164 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF66FF33"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q102089</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q124122 + Gender + Q98078 + Q100680 + Q116953 + Q106272 + Q118232 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115899</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q98869</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HouseholdStatus + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF339933"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q101163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF66FF33"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q102089</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q109244</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q110740 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q113181</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115611</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115899</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="4" tint="0.39997558519241921"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
@@ -783,7 +1600,192 @@
         <rFont val="Lucida Console"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> + Q116953 + </t>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9933FF"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q120379</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q98869</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q99480 + YOB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HouseholdStatus + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF339933"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q101163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF66FF33"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q102089</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q109244</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q110740 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q113181</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115611</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115899</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q116881</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9933FF"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q120379</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
     </r>
     <r>
       <rPr>
@@ -794,10 +1796,55 @@
       </rPr>
       <t>Q121699</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">HouseholdStatus + Q101163 + </t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q98869</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q99480 + YOB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HouseholdStatus + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF339933"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q101163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q107869 + Q108342 + </t>
     </r>
     <r>
       <rPr>
@@ -833,11 +1880,124 @@
         <rFont val="Lucida Console"/>
         <family val="3"/>
       </rPr>
+      <t xml:space="preserve"> + Q115195 + Q115390 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115611</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
       <t xml:space="preserve"> + </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q116881</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q116953 + Q120194 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9933FF"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q120379</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q120472 + Q122771 + Q123621 + Q99480 + YOB</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HouseholdStatus + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF339933"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q101163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q109244</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q110740 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q113181</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
         <color theme="7" tint="0.59999389629810485"/>
         <rFont val="Lucida Console"/>
         <family val="3"/>
@@ -874,6 +2034,291 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">YOB + HouseholdStatus + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9933FF"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q120379</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q120472 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q116881</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115611</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q113181</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q110740 + Q109244 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF339933"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q101163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q99480 + Q108342 + Q115195 + Q120194 + Q122771</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">YOB + HouseholdStatus + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9933FF"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q120379</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q120472 + Q119851 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q116881</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115611</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q113181</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q110740 + Q109244 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF339933"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q101163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q99480 + Q108342 + Q108855 + Q108856 + Q115195 + Q120194 + Q122771 + Q123621</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">YOB + HouseholdStatus + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF9933FF"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q120379</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q120472 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="4" tint="0.39997558519241921"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q116881</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q115611</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q113181</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q110740 + Q109244 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF339933"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q101163</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + Q99480</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">YOB + HouseholdStatus + Q122771 + </t>
     </r>
     <r>
@@ -910,21 +2355,16 @@
         <rFont val="Lucida Console"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> + Q115390 + Q115195 + Q113181 + Q110740 + Q109244 + Q108342 + Q107869 + Q101163 + Q99480 + Q98197</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">YOB + HouseholdStatus + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9933FF"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q120379</t>
+      <t xml:space="preserve"> + Q115390 + Q115195 + Q113181 + Q110740 + Q109244 + Q108342 + Q107869 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF339933"/>
+        <rFont val="Lucida Console"/>
+        <family val="3"/>
+      </rPr>
+      <t>Q101163</t>
     </r>
     <r>
       <rPr>
@@ -933,1310 +2373,72 @@
         <rFont val="Lucida Console"/>
         <family val="3"/>
       </rPr>
-      <t xml:space="preserve"> + Q120472 + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q116881</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="7" tint="0.59999389629810485"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q115611</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="-0.249977111117893"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q113181</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + Q110740 + Q109244 + Q101163 + Q99480</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">YOB + HouseholdStatus + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9933FF"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q120379</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + Q120472 + Q119851 + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q116881</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="7" tint="0.59999389629810485"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q115611</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="-0.249977111117893"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q113181</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + Q110740 + Q109244 + Q101163 + Q99480 + Q108342 + Q108855 + Q108856 + Q115195 + Q120194 + Q122771 + Q123621</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">YOB + HouseholdStatus + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9933FF"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q120379</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + Q120472 + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q116881</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="7" tint="0.59999389629810485"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q115611</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="-0.249977111117893"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q113181</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + Q110740 + Q109244 + Q101163 + Q99480 + Q108342 + Q115195 + Q120194 + Q122771</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">HouseholdStatus + Q101163 + Q107869 + Q108342 + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="0.39997558519241921"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q109244</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + Q110740 + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="-0.249977111117893"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q113181</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + Q115195 + Q115390 + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="7" tint="0.59999389629810485"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q115611</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q116881</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + Q116953 + Q120194 + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9933FF"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q120379</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + Q120472 + Q122771 + Q123621 + Q99480 + YOB</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF66FF33"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q102089</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="0.39997558519241921"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q109244</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="-0.249977111117893"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q113181</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="7" tint="0.59999389629810485"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q115611</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.59999389629810485"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q115899</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q116881</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q121699</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q98869</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">HouseholdStatus + Q101163 + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF66FF33"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q102089</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="0.39997558519241921"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q109244</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + Q110740 + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="-0.249977111117893"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q113181</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="7" tint="0.59999389629810485"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q115611</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.59999389629810485"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q115899</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q116881</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9933FF"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q120379</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q98869</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + Q99480 + YOB</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">HouseholdStatus + Q101163 + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF66FF33"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q102089</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="0.39997558519241921"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q109244</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + Q110740 + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="-0.249977111117893"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q113181</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="7" tint="0.59999389629810485"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q115611</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.59999389629810485"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q115899</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q116881</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF9933FF"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q120379</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q121699</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q98869</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + Q99480 + YOB</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="0.39997558519241921"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q109244</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="-0.249977111117893"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q113181</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q116881</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q121699</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="7" tint="0.59999389629810485"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q115611</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF66FF33"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q102089</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + Q124122 + Gender + Q108754 + Q100680 + Q98078 + Q116953 + Q106272 + Q123621 + Q101162 + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q98869</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + Q118232</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="0.39997558519241921"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q109244</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="-0.249977111117893"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q113181</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q116881</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q121699</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="7" tint="0.59999389629810485"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q115611</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF66FF33"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q102089</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + Gender + Q118232 + Q116953 + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q98869</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + Q106272 + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.59999389629810485"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q115899</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="0.39997558519241921"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q109244</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="-0.249977111117893"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q113181</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q116881</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q121699</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="7" tint="0.59999389629810485"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q115611</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF66FF33"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q102089</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + Gender + Q108754 + Q101162 + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q98869</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + Q116953 + Q106272 + Q123621 + Q118232 + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.59999389629810485"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q115899</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="5" tint="0.39997558519241921"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q109244</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="-0.249977111117893"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q113181</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="4" tint="0.39997558519241921"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q116881</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q121699</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="7" tint="0.59999389629810485"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q115611</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF66FF33"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q102089</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + Q124122 + Gender + Q98078 + Q100680 + Q116953 + Q106272 + Q118232 + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="6" tint="0.59999389629810485"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q115899</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="4" tint="-0.499984740745262"/>
-        <rFont val="Lucida Console"/>
-        <family val="3"/>
-      </rPr>
-      <t>Q98869</t>
-    </r>
+      <t xml:space="preserve"> + Q99480 + Q98197</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Q102089 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HouseholdStatus </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q101163 </t>
+  </si>
+  <si>
+    <t>SigPlus</t>
+  </si>
+  <si>
+    <t>Q105840</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>* good book</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>EducationLevel</t>
+  </si>
+  <si>
+    <t>Q104996</t>
+  </si>
+  <si>
+    <t>gbmSeln</t>
+  </si>
+  <si>
+    <t>gbm5</t>
+  </si>
+  <si>
+    <t>gbm</t>
+  </si>
+  <si>
+    <t>may have overwritten previous rf7; default settings in cforest/party package</t>
+  </si>
+  <si>
+    <t>rf8</t>
+  </si>
+  <si>
+    <t>as above with ntree and mtry adjusted</t>
+  </si>
+  <si>
+    <t>cov_sigQplus, "Income", "EducationLevel"</t>
+  </si>
+  <si>
+    <t>rf9</t>
+  </si>
+  <si>
+    <t>&lt;0.49, otherwise as rf8 where threshold was 0.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2360,12 +2562,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="4" tint="-0.499984740745262"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF9933FF"/>
       <name val="Lucida Console"/>
       <family val="3"/>
@@ -2375,6 +2571,57 @@
       <color rgb="FF66FF33"/>
       <name val="Lucida Console"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF339933"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF339933"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF339933"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2397,7 +2644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2430,6 +2677,14 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2486,6 +2741,7 @@
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF339933"/>
       <color rgb="FF66FF33"/>
     </mruColors>
   </colors>
@@ -2784,10 +3040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3267,6 +3523,103 @@
         <v>195</v>
       </c>
     </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>42534</v>
+      </c>
+      <c r="B26" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="D26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E26" t="s">
+        <v>223</v>
+      </c>
+      <c r="F26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="D27" t="s">
+        <v>186</v>
+      </c>
+      <c r="E27" t="s">
+        <v>175</v>
+      </c>
+      <c r="F27" t="s">
+        <v>176</v>
+      </c>
+      <c r="G27" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>225</v>
+      </c>
+      <c r="C28">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="D28" t="s">
+        <v>186</v>
+      </c>
+      <c r="E28" t="s">
+        <v>175</v>
+      </c>
+      <c r="F28" t="s">
+        <v>176</v>
+      </c>
+      <c r="G28" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="D29" t="s">
+        <v>186</v>
+      </c>
+      <c r="E29" t="s">
+        <v>175</v>
+      </c>
+      <c r="F29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="D30" t="s">
+        <v>186</v>
+      </c>
+      <c r="E30" t="s">
+        <v>175</v>
+      </c>
+      <c r="F30" t="s">
+        <v>227</v>
+      </c>
+      <c r="G30" t="s">
+        <v>229</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3276,8 +3629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3332,7 +3685,7 @@
         <v>glm3backwards selection</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3353,7 +3706,7 @@
         <v>glm3forwards selection</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="I5" s="17"/>
     </row>
@@ -3391,7 +3744,7 @@
         <v>glm4backwards selection</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3412,7 +3765,7 @@
         <v>glm4forwards selection</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -3443,7 +3796,7 @@
         <v>glm5backwards selection</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -3464,7 +3817,7 @@
         <v>glm5forwards selection</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -3498,7 +3851,7 @@
         <v>glm6backwards selection</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3519,7 +3872,7 @@
         <v>glm6forwards selection</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -3558,7 +3911,7 @@
         <v>glm7backwards selection</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -3579,7 +3932,7 @@
         <v>glm7forwards selection</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -3618,7 +3971,7 @@
         <v>glm8backwards selection</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -3676,7 +4029,7 @@
         <v>glm9backwards selection</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -3697,7 +4050,7 @@
         <v>glm9forwards selection</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -3715,7 +4068,7 @@
         <v>glm13</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -3733,7 +4086,7 @@
         <v>glm14</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -3751,7 +4104,7 @@
         <v>glm15</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -3773,7 +4126,7 @@
   <dimension ref="A1:DC16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8443,10 +8796,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8456,7 +8809,7 @@
     <col min="3" max="3" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>143</v>
       </c>
@@ -8466,129 +8819,222 @@
       <c r="C1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="19" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>82</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="21" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>83</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="21" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" s="23" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>84</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="19" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="E5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="19" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="F6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>86</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="19" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>87</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="21" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>88</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="19" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" t="s">
+        <v>216</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>89</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="19" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>90</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="19" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" t="s">
+        <v>216</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>91</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="19" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -8598,119 +9044,176 @@
       <c r="C13" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>93</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>94</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="21" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="21" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" t="s">
+        <v>217</v>
+      </c>
+      <c r="F16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="19" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="21" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="23" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="21" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E22" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>112</v>
       </c>
@@ -8731,9 +9234,109 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="C3:C35">
-    <sortCondition ref="C3:C35"/>
+  <sortState ref="D2:D35">
+    <sortCondition ref="D2:D35"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Model performance.xlsx
+++ b/Model performance.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="233">
   <si>
     <t>Date</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Submission</t>
   </si>
   <si>
-    <t>Score</t>
-  </si>
-  <si>
     <t>Imputation</t>
   </si>
   <si>
@@ -2432,13 +2429,25 @@
   </si>
   <si>
     <t>&lt;0.49, otherwise as rf8 where threshold was 0.5</t>
+  </si>
+  <si>
+    <t>Public Score</t>
+  </si>
+  <si>
+    <t>Private Score</t>
+  </si>
+  <si>
+    <t>Submitted</t>
+  </si>
+  <si>
+    <t>Final standing position 697 with 0.63362</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2623,6 +2632,18 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2644,7 +2665,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2685,6 +2706,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3040,20 +3063,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3061,563 +3085,663 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>42527</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>10</v>
       </c>
       <c r="C3">
         <v>0.59899999999999998</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>0.59699999999999998</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>0.61499999999999999</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
         <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>16</v>
       </c>
       <c r="C6">
         <v>0.61899999999999999</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
+      <c r="D6">
+        <v>0.61399999999999999</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>42528</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C7">
         <v>0.59199999999999997</v>
       </c>
-      <c r="D7" t="s">
-        <v>15</v>
+      <c r="D7">
+        <v>0.58599999999999997</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>159</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="H7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C8">
         <v>0.61199999999999999</v>
       </c>
-      <c r="D8" t="s">
-        <v>15</v>
+      <c r="D8">
+        <v>0.61899999999999999</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9">
         <v>0.58799999999999997</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
+      <c r="D9">
+        <v>0.61899999999999999</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>161</v>
       </c>
       <c r="C10">
         <v>0.60499999999999998</v>
       </c>
-      <c r="D10" t="s">
-        <v>15</v>
+      <c r="D10">
+        <v>0.58899999999999997</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>163</v>
       </c>
       <c r="C11">
         <v>0.61499999999999999</v>
       </c>
-      <c r="D11" t="s">
-        <v>15</v>
+      <c r="D11">
+        <v>0.622</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>42529</v>
       </c>
       <c r="B12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C12">
         <v>0.24299999999999999</v>
       </c>
-      <c r="D12" t="s">
-        <v>169</v>
+      <c r="D12">
+        <v>0.254</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>168</v>
       </c>
       <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12" t="s">
         <v>166</v>
       </c>
-      <c r="G12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>42530</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13">
+        <v>167</v>
+      </c>
+      <c r="C13" s="24">
         <v>0.621</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="24">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="E13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>165</v>
+      </c>
+      <c r="H13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" s="24">
+        <v>0.621</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="E14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" t="s">
         <v>170</v>
       </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>166</v>
-      </c>
-      <c r="G13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
         <v>172</v>
-      </c>
-      <c r="C14">
-        <v>0.621</v>
-      </c>
-      <c r="D14" t="s">
-        <v>170</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>173</v>
       </c>
       <c r="C15">
         <v>0.61899999999999999</v>
       </c>
-      <c r="D15" t="s">
-        <v>170</v>
+      <c r="D15">
+        <v>0.626</v>
       </c>
       <c r="E15" t="s">
-        <v>8</v>
+        <v>169</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B16" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C16" s="15">
         <v>0.51300000000000001</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>170</v>
+      <c r="D16" s="15">
+        <v>0.51300000000000001</v>
       </c>
       <c r="E16" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="G16" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="H16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="15" t="s">
         <v>176</v>
-      </c>
-      <c r="G16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="15" t="s">
-        <v>177</v>
       </c>
       <c r="C17" s="15">
         <v>0.48699999999999999</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>170</v>
+      <c r="D17" s="15">
+        <v>0.50700000000000001</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F17" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="H17" t="s">
         <v>178</v>
       </c>
-      <c r="G17" t="s">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>180</v>
       </c>
       <c r="C18">
         <v>0.61599999999999999</v>
       </c>
-      <c r="D18" t="s">
-        <v>15</v>
+      <c r="D18">
+        <v>0.58799999999999997</v>
       </c>
       <c r="E18" t="s">
-        <v>175</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="G18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C19">
         <v>0.621</v>
       </c>
-      <c r="D19" t="s">
-        <v>15</v>
+      <c r="D19">
+        <v>0.57499999999999996</v>
       </c>
       <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>174</v>
+      </c>
+      <c r="G19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="24">
+        <v>0.625</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="E20" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" t="s">
         <v>175</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H20" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>184</v>
-      </c>
-      <c r="C20" s="4">
-        <v>0.625</v>
-      </c>
-      <c r="D20" t="s">
-        <v>170</v>
-      </c>
-      <c r="E20" t="s">
-        <v>175</v>
-      </c>
-      <c r="F20" t="s">
-        <v>176</v>
-      </c>
-      <c r="G20" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>42532</v>
       </c>
       <c r="B21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C21" s="16">
         <v>0.622</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="16">
+        <v>0.628</v>
+      </c>
+      <c r="E21" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" t="s">
+        <v>175</v>
+      </c>
+      <c r="H21" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="E21" t="s">
-        <v>175</v>
-      </c>
-      <c r="F21" t="s">
-        <v>176</v>
-      </c>
-      <c r="G21" s="16" t="s">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>188</v>
       </c>
       <c r="C22">
         <v>0.59499999999999997</v>
       </c>
-      <c r="D22" t="s">
-        <v>186</v>
+      <c r="D22" s="25">
+        <v>0.64500000000000002</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="F22" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C23">
         <v>0.60799999999999998</v>
       </c>
-      <c r="D23" t="s">
-        <v>186</v>
+      <c r="D23">
+        <v>0.63800000000000001</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="F23" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C24">
         <v>0.59799999999999998</v>
       </c>
-      <c r="D24" t="s">
-        <v>186</v>
+      <c r="D24">
+        <v>0.621</v>
       </c>
       <c r="E24" t="s">
-        <v>8</v>
+        <v>185</v>
       </c>
       <c r="F24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+      <c r="C25" s="24">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="D25" s="24">
+        <v>0.621</v>
+      </c>
+      <c r="E25" t="s">
+        <v>185</v>
+      </c>
+      <c r="F25" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" t="s">
+        <v>175</v>
+      </c>
+      <c r="H25" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="C25" s="16">
-        <v>0.60299999999999998</v>
-      </c>
-      <c r="D25" t="s">
-        <v>186</v>
-      </c>
-      <c r="E25" t="s">
-        <v>175</v>
-      </c>
-      <c r="F25" t="s">
-        <v>176</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>42534</v>
       </c>
       <c r="B26" t="s">
+        <v>221</v>
+      </c>
+      <c r="C26" s="24">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="D26" s="24">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="E26" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" t="s">
         <v>222</v>
       </c>
-      <c r="C26">
-        <v>0.61599999999999999</v>
-      </c>
-      <c r="D26" t="s">
-        <v>186</v>
-      </c>
-      <c r="E26" t="s">
-        <v>223</v>
-      </c>
-      <c r="F26" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C27">
         <v>0.60899999999999999</v>
       </c>
-      <c r="D27" t="s">
-        <v>186</v>
+      <c r="D27" s="25">
+        <v>0.64100000000000001</v>
       </c>
       <c r="E27" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27" t="s">
+        <v>174</v>
+      </c>
+      <c r="G27" t="s">
         <v>175</v>
       </c>
-      <c r="F27" t="s">
-        <v>176</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>224</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>225</v>
       </c>
       <c r="C28">
         <v>0.60599999999999998</v>
       </c>
-      <c r="D28" t="s">
-        <v>186</v>
+      <c r="D28">
+        <v>0.625</v>
       </c>
       <c r="E28" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" t="s">
         <v>175</v>
       </c>
-      <c r="F28" t="s">
-        <v>176</v>
-      </c>
-      <c r="G28" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C29">
         <v>0.59899999999999998</v>
       </c>
-      <c r="D29" t="s">
-        <v>186</v>
+      <c r="D29" s="25">
+        <v>0.64200000000000002</v>
       </c>
       <c r="E29" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F29" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>228</v>
       </c>
       <c r="C30">
         <v>0.59499999999999997</v>
       </c>
-      <c r="D30" t="s">
-        <v>186</v>
+      <c r="D30">
+        <v>0.622</v>
       </c>
       <c r="E30" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="F30" t="s">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="G30" t="s">
-        <v>229</v>
+        <v>226</v>
+      </c>
+      <c r="H30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C32" s="24" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3640,16 +3764,16 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3660,7 +3784,7 @@
         <v>5410.9</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="str">
         <f>CONCATENATE(C3,D3)</f>
@@ -3675,17 +3799,17 @@
         <v>5356.9880000000003</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F27" si="0">CONCATENATE(C4,D4)</f>
         <v>glm3backwards selection</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3696,17 +3820,17 @@
         <v>1800.4480000000001</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
         <v>glm3forwards selection</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I5" s="17"/>
     </row>
@@ -3718,7 +3842,7 @@
         <v>5395.6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -3734,17 +3858,17 @@
         <v>5377.0529999999999</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
         <v>glm4backwards selection</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3755,22 +3879,22 @@
         <v>1813.749</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
         <v>glm4forwards selection</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -3786,17 +3910,17 @@
         <v>5360.4189999999999</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
         <v>glm5backwards selection</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -3807,17 +3931,17 @@
         <v>1802.5440000000001</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
         <v>glm5forwards selection</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -3825,7 +3949,7 @@
         <v>5393</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -3841,17 +3965,17 @@
         <v>5360.6779999999999</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
         <v>glm6backwards selection</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3862,17 +3986,17 @@
         <v>1806.5229999999999</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
         <v>glm6forwards selection</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -3883,14 +4007,14 @@
         <v>5426.2079999999996</v>
       </c>
       <c r="C15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
         <v>glm7</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -3901,17 +4025,17 @@
         <v>5419.9740000000002</v>
       </c>
       <c r="C16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
         <v>glm7backwards selection</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -3922,17 +4046,17 @@
         <v>1806.5229999999999</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
         <v>glm7forwards selection</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -3943,14 +4067,14 @@
         <v>5385.8</v>
       </c>
       <c r="C18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
         <v>glm8</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -3961,17 +4085,17 @@
         <v>5377.0529999999999</v>
       </c>
       <c r="C19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
         <v>glm8backwards selection</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -3982,10 +4106,10 @@
         <v>1806.5229999999999</v>
       </c>
       <c r="C20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -4001,14 +4125,14 @@
         <v>5376.1289999999999</v>
       </c>
       <c r="C21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
         <v>glm9</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -4019,17 +4143,17 @@
         <v>5357.7</v>
       </c>
       <c r="C22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
         <v>glm9backwards selection</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -4040,17 +4164,17 @@
         <v>1795.886</v>
       </c>
       <c r="C23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
         <v>glm9forwards selection</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -4061,14 +4185,14 @@
         <v>5347.69</v>
       </c>
       <c r="C24" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
         <v>glm13</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -4079,14 +4203,14 @@
         <v>5347.7269999999999</v>
       </c>
       <c r="C25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
         <v>glm14</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -4097,14 +4221,14 @@
         <v>5377.1890000000003</v>
       </c>
       <c r="C26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
         <v>glm15</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -4113,7 +4237,7 @@
         <v/>
       </c>
       <c r="G27" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -4133,114 +4257,114 @@
   <sheetData>
     <row r="1" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>29</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>33</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>34</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>35</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>36</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>37</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>38</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>40</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>41</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>42</v>
-      </c>
-      <c r="T1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
         <v>44</v>
       </c>
-      <c r="C2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>53</v>
-      </c>
-      <c r="P2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:107" x14ac:dyDescent="0.2">
@@ -4248,66 +4372,66 @@
     </row>
     <row r="4" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
       <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
         <v>36</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>37</v>
       </c>
-      <c r="J4" t="s">
-        <v>38</v>
-      </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
         <v>44</v>
       </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:107" x14ac:dyDescent="0.2">
@@ -4315,114 +4439,114 @@
     </row>
     <row r="7" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" t="s">
-        <v>39</v>
-      </c>
-      <c r="O7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="T7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>35</v>
-      </c>
-      <c r="R7" t="s">
-        <v>30</v>
-      </c>
-      <c r="S7" t="s">
-        <v>27</v>
-      </c>
-      <c r="T7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="M8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N8" t="s">
         <v>62</v>
       </c>
-      <c r="L8" t="s">
-        <v>32</v>
-      </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>51</v>
       </c>
-      <c r="N8" t="s">
+      <c r="P8" t="s">
         <v>63</v>
-      </c>
-      <c r="O8" t="s">
-        <v>52</v>
-      </c>
-      <c r="P8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:107" x14ac:dyDescent="0.2">
@@ -4430,416 +4554,416 @@
     </row>
     <row r="10" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
       <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" t="s">
         <v>29</v>
       </c>
-      <c r="F10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" t="s">
-        <v>41</v>
-      </c>
-      <c r="L10" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N10" t="s">
-        <v>35</v>
-      </c>
-      <c r="O10" t="s">
-        <v>30</v>
-      </c>
       <c r="P10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
         <v>44</v>
       </c>
-      <c r="C11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" t="s">
         <v>31</v>
       </c>
-      <c r="E11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" t="s">
-        <v>32</v>
-      </c>
       <c r="K11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:107" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" t="s">
+        <v>35</v>
+      </c>
+      <c r="N16" t="s">
+        <v>36</v>
+      </c>
+      <c r="O16" t="s">
+        <v>37</v>
+      </c>
+      <c r="P16" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>39</v>
+      </c>
+      <c r="R16" t="s">
+        <v>40</v>
+      </c>
+      <c r="S16" t="s">
+        <v>41</v>
+      </c>
+      <c r="T16" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="U16" t="s">
+        <v>35</v>
+      </c>
+      <c r="V16" t="s">
+        <v>30</v>
+      </c>
+      <c r="W16" t="s">
+        <v>44</v>
+      </c>
+      <c r="X16" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
+      <c r="AJ16" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR16" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AU16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AV16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX16" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY16" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>27</v>
+      </c>
+      <c r="BA16" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB16" t="s">
+        <v>55</v>
+      </c>
+      <c r="BC16" t="s">
+        <v>30</v>
+      </c>
+      <c r="BD16" t="s">
+        <v>32</v>
+      </c>
+      <c r="BE16" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG16" t="s">
+        <v>37</v>
+      </c>
+      <c r="BH16" t="s">
+        <v>40</v>
+      </c>
+      <c r="BI16" t="s">
+        <v>41</v>
+      </c>
+      <c r="BJ16" t="s">
+        <v>38</v>
+      </c>
+      <c r="BK16" t="s">
+        <v>56</v>
+      </c>
+      <c r="BL16" t="s">
+        <v>57</v>
+      </c>
+      <c r="BM16" t="s">
+        <v>34</v>
+      </c>
+      <c r="BN16" t="s">
+        <v>29</v>
+      </c>
+      <c r="BO16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
+      <c r="BP16" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ16" t="s">
+        <v>35</v>
+      </c>
+      <c r="BR16" t="s">
+        <v>30</v>
+      </c>
+      <c r="BS16" t="s">
+        <v>44</v>
+      </c>
+      <c r="BT16" t="s">
+        <v>32</v>
+      </c>
+      <c r="BU16" t="s">
+        <v>45</v>
+      </c>
+      <c r="BV16" t="s">
+        <v>47</v>
+      </c>
+      <c r="BW16" t="s">
+        <v>59</v>
+      </c>
+      <c r="BX16" t="s">
+        <v>60</v>
+      </c>
+      <c r="BY16" t="s">
+        <v>61</v>
+      </c>
+      <c r="BZ16" t="s">
+        <v>31</v>
+      </c>
+      <c r="CA16" t="s">
+        <v>50</v>
+      </c>
+      <c r="CB16" t="s">
+        <v>62</v>
+      </c>
+      <c r="CC16" t="s">
+        <v>51</v>
+      </c>
+      <c r="CD16" t="s">
+        <v>78</v>
+      </c>
+      <c r="CE16" t="s">
+        <v>25</v>
+      </c>
+      <c r="CF16" t="s">
         <v>27</v>
       </c>
-      <c r="E16" t="s">
+      <c r="CG16" t="s">
         <v>28</v>
       </c>
-      <c r="F16" t="s">
+      <c r="CH16" t="s">
+        <v>30</v>
+      </c>
+      <c r="CI16" t="s">
+        <v>32</v>
+      </c>
+      <c r="CJ16" t="s">
+        <v>35</v>
+      </c>
+      <c r="CK16" t="s">
+        <v>36</v>
+      </c>
+      <c r="CL16" t="s">
+        <v>37</v>
+      </c>
+      <c r="CM16" t="s">
+        <v>40</v>
+      </c>
+      <c r="CN16" t="s">
+        <v>41</v>
+      </c>
+      <c r="CO16" t="s">
+        <v>38</v>
+      </c>
+      <c r="CP16" t="s">
+        <v>34</v>
+      </c>
+      <c r="CQ16" t="s">
         <v>29</v>
       </c>
-      <c r="G16" t="s">
+      <c r="CR16" t="s">
+        <v>79</v>
+      </c>
+      <c r="CS16" t="s">
+        <v>35</v>
+      </c>
+      <c r="CT16" t="s">
         <v>30</v>
       </c>
-      <c r="H16" t="s">
+      <c r="CU16" t="s">
+        <v>44</v>
+      </c>
+      <c r="CV16" t="s">
+        <v>32</v>
+      </c>
+      <c r="CW16" t="s">
+        <v>45</v>
+      </c>
+      <c r="CX16" t="s">
+        <v>47</v>
+      </c>
+      <c r="CY16" t="s">
+        <v>51</v>
+      </c>
+      <c r="CZ16" t="s">
         <v>31</v>
       </c>
-      <c r="I16" t="s">
-        <v>32</v>
-      </c>
-      <c r="J16" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" t="s">
-        <v>35</v>
-      </c>
-      <c r="M16" t="s">
-        <v>36</v>
-      </c>
-      <c r="N16" t="s">
-        <v>37</v>
-      </c>
-      <c r="O16" t="s">
-        <v>38</v>
-      </c>
-      <c r="P16" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>40</v>
-      </c>
-      <c r="R16" t="s">
-        <v>41</v>
-      </c>
-      <c r="S16" t="s">
-        <v>42</v>
-      </c>
-      <c r="T16" t="s">
-        <v>75</v>
-      </c>
-      <c r="U16" t="s">
-        <v>36</v>
-      </c>
-      <c r="V16" t="s">
-        <v>31</v>
-      </c>
-      <c r="W16" t="s">
-        <v>45</v>
-      </c>
-      <c r="X16" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y16" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>48</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC16" t="s">
+      <c r="DA16" t="s">
+        <v>61</v>
+      </c>
+      <c r="DB16" t="s">
         <v>50</v>
       </c>
-      <c r="AD16" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG16" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>76</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>26</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>28</v>
-      </c>
-      <c r="AK16" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN16" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO16" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP16" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ16" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AS16" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT16" t="s">
-        <v>31</v>
-      </c>
-      <c r="AU16" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV16" t="s">
-        <v>33</v>
-      </c>
-      <c r="AW16" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX16" t="s">
-        <v>76</v>
-      </c>
-      <c r="AY16" t="s">
-        <v>26</v>
-      </c>
-      <c r="AZ16" t="s">
-        <v>28</v>
-      </c>
-      <c r="BA16" t="s">
-        <v>29</v>
-      </c>
-      <c r="BB16" t="s">
-        <v>56</v>
-      </c>
-      <c r="BC16" t="s">
-        <v>31</v>
-      </c>
-      <c r="BD16" t="s">
-        <v>33</v>
-      </c>
-      <c r="BE16" t="s">
-        <v>36</v>
-      </c>
-      <c r="BF16" t="s">
-        <v>37</v>
-      </c>
-      <c r="BG16" t="s">
-        <v>38</v>
-      </c>
-      <c r="BH16" t="s">
-        <v>41</v>
-      </c>
-      <c r="BI16" t="s">
-        <v>42</v>
-      </c>
-      <c r="BJ16" t="s">
-        <v>39</v>
-      </c>
-      <c r="BK16" t="s">
-        <v>57</v>
-      </c>
-      <c r="BL16" t="s">
-        <v>58</v>
-      </c>
-      <c r="BM16" t="s">
-        <v>35</v>
-      </c>
-      <c r="BN16" t="s">
-        <v>30</v>
-      </c>
-      <c r="BO16" t="s">
-        <v>27</v>
-      </c>
-      <c r="BP16" t="s">
-        <v>78</v>
-      </c>
-      <c r="BQ16" t="s">
-        <v>36</v>
-      </c>
-      <c r="BR16" t="s">
-        <v>31</v>
-      </c>
-      <c r="BS16" t="s">
-        <v>45</v>
-      </c>
-      <c r="BT16" t="s">
-        <v>33</v>
-      </c>
-      <c r="BU16" t="s">
-        <v>46</v>
-      </c>
-      <c r="BV16" t="s">
-        <v>48</v>
-      </c>
-      <c r="BW16" t="s">
-        <v>60</v>
-      </c>
-      <c r="BX16" t="s">
-        <v>61</v>
-      </c>
-      <c r="BY16" t="s">
-        <v>62</v>
-      </c>
-      <c r="BZ16" t="s">
-        <v>32</v>
-      </c>
-      <c r="CA16" t="s">
-        <v>51</v>
-      </c>
-      <c r="CB16" t="s">
+      <c r="DC16" t="s">
         <v>63</v>
-      </c>
-      <c r="CC16" t="s">
-        <v>52</v>
-      </c>
-      <c r="CD16" t="s">
-        <v>79</v>
-      </c>
-      <c r="CE16" t="s">
-        <v>26</v>
-      </c>
-      <c r="CF16" t="s">
-        <v>28</v>
-      </c>
-      <c r="CG16" t="s">
-        <v>29</v>
-      </c>
-      <c r="CH16" t="s">
-        <v>31</v>
-      </c>
-      <c r="CI16" t="s">
-        <v>33</v>
-      </c>
-      <c r="CJ16" t="s">
-        <v>36</v>
-      </c>
-      <c r="CK16" t="s">
-        <v>37</v>
-      </c>
-      <c r="CL16" t="s">
-        <v>38</v>
-      </c>
-      <c r="CM16" t="s">
-        <v>41</v>
-      </c>
-      <c r="CN16" t="s">
-        <v>42</v>
-      </c>
-      <c r="CO16" t="s">
-        <v>39</v>
-      </c>
-      <c r="CP16" t="s">
-        <v>35</v>
-      </c>
-      <c r="CQ16" t="s">
-        <v>30</v>
-      </c>
-      <c r="CR16" t="s">
-        <v>80</v>
-      </c>
-      <c r="CS16" t="s">
-        <v>36</v>
-      </c>
-      <c r="CT16" t="s">
-        <v>31</v>
-      </c>
-      <c r="CU16" t="s">
-        <v>45</v>
-      </c>
-      <c r="CV16" t="s">
-        <v>33</v>
-      </c>
-      <c r="CW16" t="s">
-        <v>46</v>
-      </c>
-      <c r="CX16" t="s">
-        <v>48</v>
-      </c>
-      <c r="CY16" t="s">
-        <v>52</v>
-      </c>
-      <c r="CZ16" t="s">
-        <v>32</v>
-      </c>
-      <c r="DA16" t="s">
-        <v>62</v>
-      </c>
-      <c r="DB16" t="s">
-        <v>51</v>
-      </c>
-      <c r="DC16" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -4866,821 +4990,821 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
         <v>66</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>67</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>68</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>70</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>71</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>72</v>
-      </c>
-      <c r="M1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="G3" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="H5" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>108</v>
-      </c>
       <c r="K5" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>107</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>84</v>
-      </c>
       <c r="K10" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B11" t="s">
+      <c r="G11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>85</v>
-      </c>
       <c r="M11" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M16" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -5696,746 +5820,746 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B64" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B66" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B67" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B68" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B69" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B70" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B75" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B76" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B77" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B78" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B79" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B80" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B81" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B82" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B83" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B88" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B89" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B90" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B91" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B92" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B96" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B98" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B99" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B100" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B101" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B102" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B103" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B104" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B106" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B107" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B108" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B109" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B110" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B112" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B114" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -6462,42 +6586,42 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" t="s">
         <v>67</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>68</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" t="s">
         <v>71</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="N1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A2)</f>
@@ -6558,7 +6682,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A3)</f>
@@ -6619,7 +6743,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A4)</f>
@@ -6678,12 +6802,12 @@
         <v>1</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A5)</f>
@@ -6742,12 +6866,12 @@
         <v>1</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A6)</f>
@@ -6806,12 +6930,12 @@
         <v>0</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B7">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A7)</f>
@@ -6870,12 +6994,12 @@
         <v>3</v>
       </c>
       <c r="P7" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A8)</f>
@@ -6934,12 +7058,12 @@
         <v>3</v>
       </c>
       <c r="P8" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A9)</f>
@@ -7000,7 +7124,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A10)</f>
@@ -7061,7 +7185,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A11)</f>
@@ -7120,12 +7244,12 @@
         <v>1</v>
       </c>
       <c r="P11" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A12)</f>
@@ -7186,7 +7310,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A13)</f>
@@ -7247,7 +7371,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B14">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A14)</f>
@@ -7306,12 +7430,12 @@
         <v>3</v>
       </c>
       <c r="P14" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A15)</f>
@@ -7370,12 +7494,12 @@
         <v>0</v>
       </c>
       <c r="P15" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A16)</f>
@@ -7434,12 +7558,12 @@
         <v>3</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A17)</f>
@@ -7500,7 +7624,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B18">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A18)</f>
@@ -7561,7 +7685,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B19">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A19)</f>
@@ -7620,12 +7744,12 @@
         <v>3</v>
       </c>
       <c r="P19" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B20">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A20)</f>
@@ -7684,12 +7808,12 @@
         <v>3</v>
       </c>
       <c r="P20" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B21">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A21)</f>
@@ -7748,12 +7872,12 @@
         <v>3</v>
       </c>
       <c r="P21" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A22)</f>
@@ -7812,12 +7936,12 @@
         <v>3</v>
       </c>
       <c r="P22" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B23">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A23)</f>
@@ -7876,12 +8000,12 @@
         <v>3</v>
       </c>
       <c r="P23" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B24">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A24)</f>
@@ -7942,7 +8066,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A25)</f>
@@ -8003,7 +8127,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B26">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A26)</f>
@@ -8062,12 +8186,12 @@
         <v>0</v>
       </c>
       <c r="P26" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B27">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A27)</f>
@@ -8126,12 +8250,12 @@
         <v>0</v>
       </c>
       <c r="P27" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B28">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A28)</f>
@@ -8190,12 +8314,12 @@
         <v>3</v>
       </c>
       <c r="P28" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B29">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A29)</f>
@@ -8256,7 +8380,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B30">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A30)</f>
@@ -8317,7 +8441,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B31">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A31)</f>
@@ -8376,12 +8500,12 @@
         <v>1</v>
       </c>
       <c r="P31" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B32">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A32)</f>
@@ -8442,7 +8566,7 @@
     </row>
     <row r="33" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B33">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A33)</f>
@@ -8501,12 +8625,12 @@
         <v>0</v>
       </c>
       <c r="P33" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B34">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A34)</f>
@@ -8565,12 +8689,12 @@
         <v>3</v>
       </c>
       <c r="P34" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B35">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A35)</f>
@@ -8629,12 +8753,12 @@
         <v>0</v>
       </c>
       <c r="P35" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B36">
         <f>COUNTIF(Sheet1!$A$2:$A$114, Sheet2!A36)</f>
@@ -8695,7 +8819,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B37" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C37">
         <f>SUM(C2:C36)</f>
@@ -8748,32 +8872,32 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -8811,426 +8935,426 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" t="s">
         <v>147</v>
       </c>
-      <c r="C1" t="s">
-        <v>148</v>
-      </c>
       <c r="D1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>87</v>
-      </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" t="s">
+        <v>215</v>
+      </c>
+      <c r="F9" t="s">
         <v>94</v>
-      </c>
-      <c r="E9" t="s">
-        <v>216</v>
-      </c>
-      <c r="F9" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" t="s">
+        <v>215</v>
+      </c>
+      <c r="F11" t="s">
         <v>103</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E11" t="s">
-        <v>216</v>
-      </c>
-      <c r="F11" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" t="s">
         <v>93</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" t="s">
         <v>96</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="F17" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>100</v>
-      </c>
       <c r="D20" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D22" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -9253,87 +9377,87 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
